--- a/medicine/Médecine vétérinaire/Ingestibilité/Ingestibilité.xlsx
+++ b/medicine/Médecine vétérinaire/Ingestibilité/Ingestibilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ingestibilit%C3%A9</t>
+          <t>Ingestibilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ingestibilité d'un aliment, c'est l'aptitude de cet aliment à être plus ou moins consommé par un animal, distribué seul ou à volonté.
 Dans le cas d'un apport simultané de fourrage à volonté et de concentrés, on observe un phénomène de substitution : l'animal ingère moins de fourrages pour ingérer du concentré, et la quantité totale d'aliment ingérée est plus importante que lors d'un apport de fourrage seul. Il existe également des interactions digestives (dépendant de la flore du rumen, entre les cellulolytiques qui dégradent le fourrage et les amylolytiques qui dégradent l'amidon, donc les concentrés).
